--- a/biology/Zoologie/Jaminia_quadridens/Jaminia_quadridens.xlsx
+++ b/biology/Zoologie/Jaminia_quadridens/Jaminia_quadridens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bulime à quatre dents, Bulime inverse
  Jaminia quadridens , le Bulime à quatre dents ou Bulime inverse, est une espèce de mollusques gastéropodes terrestres de la famille des Enidae.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La coquille mesure de 7 à 15 mm du haut, et de 3 à 4 mm de large, de forme ovoïde-allongée plus ou moins cylindrique, brun testacé, peu luisante. Elle comporte 7 à 9 tours senestres, seule de cette famille en Europe occidentale continentale à présenter cette caractéristique. Son péristome est blanc, épaissi, comporte quatre dents à l'intérieur, 1 pariétale, 1 palatale et 2 columellaires[1], qui peuvent être plus ou moins développées.   
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La coquille mesure de 7 à 15 mm du haut, et de 3 à 4 mm de large, de forme ovoïde-allongée plus ou moins cylindrique, brun testacé, peu luisante. Elle comporte 7 à 9 tours senestres, seule de cette famille en Europe occidentale continentale à présenter cette caractéristique. Son péristome est blanc, épaissi, comporte quatre dents à l'intérieur, 1 pariétale, 1 palatale et 2 columellaires, qui peuvent être plus ou moins développées.   
 Ces deux dernières caractéristiques permettent de ne pas la confondre, sauf avec les autres espèces de Jaminia dans leurs aires respectives, dont les coquilles ne présentent guère de différence visible.  
 </t>
         </is>
@@ -544,10 +558,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une espèce méditerranéenne et ouest-européenne, présente de l'Est de l'Espagne au Nord de la Grèce, et au centre de l'Allemagne. Dans le sud de son aire, elle ne semble pas menacée.  
-Par contre, dans les Alpes et le Massif central, elle est menacée par la destruction de ses habitats secs. Elle est vulnérable en Suisse, et en danger critique d'extinction en Autriche, en Allemagne[2] et dans la région Centre de la France[3]. 
+Par contre, dans les Alpes et le Massif central, elle est menacée par la destruction de ses habitats secs. Elle est vulnérable en Suisse, et en danger critique d'extinction en Autriche, en Allemagne et dans la région Centre de la France. 
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce xéro-thermophile, qui vit sur les pentes herbeuses sèches, entre les pierres, de préférence sur substrats calcaires. Elle supporte le pâturage extensif. Dans les Alpes, elle est présente jusqu’à 2 400 m d'altitude[2]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce xéro-thermophile, qui vit sur les pentes herbeuses sèches, entre les pierres, de préférence sur substrats calcaires. Elle supporte le pâturage extensif. Dans les Alpes, elle est présente jusqu’à 2 400 m d'altitude. 
 </t>
         </is>
       </c>
